--- a/misc/partlist.xlsx
+++ b/misc/partlist.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17600" tabRatio="500"/>
+    <workbookView xWindow="2340" yWindow="860" windowWidth="28800" windowHeight="17600" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="40">
   <si>
     <t>Product #</t>
   </si>
@@ -99,6 +99,51 @@
   </si>
   <si>
     <t>ships in 5-10 days</t>
+  </si>
+  <si>
+    <t>https://www.grainger.com/product/LAB-SAFETY-SUPPLY-Ultrasonic-Cleaner-32V115?s_pp=false&amp;picUrl=//static.grainger.com/rp/s/is/image/Grainger/32V115_AS01?$smthumb$</t>
+  </si>
+  <si>
+    <t>Ultrasonic Cleaner (alternate)</t>
+  </si>
+  <si>
+    <t>Lab Safety Supply</t>
+  </si>
+  <si>
+    <t>2 um filter</t>
+  </si>
+  <si>
+    <t>https://www.fishersci.com/shop/products/upchurch-scientific-low-pressure-inline-filters-4/p-4383446#tab1</t>
+  </si>
+  <si>
+    <t>Upchurch Scientific</t>
+  </si>
+  <si>
+    <t>A-415 / A-416</t>
+  </si>
+  <si>
+    <t>Works with 1/8'' or 1/16'' OD tubing</t>
+  </si>
+  <si>
+    <t>32V115</t>
+  </si>
+  <si>
+    <t>http://www.coleparmer.com/Product/In_Line_Compressed_Air_Filter_6_scfm_150_psi_1_4_NPT_F/EW-02917-00</t>
+  </si>
+  <si>
+    <t>Compressed Air Filter (.1 um)</t>
+  </si>
+  <si>
+    <t>8A02N-0B2-BX</t>
+  </si>
+  <si>
+    <t>1/4'' NPT Connections</t>
+  </si>
+  <si>
+    <t>flask</t>
+  </si>
+  <si>
+    <t>http://www.fishersci.com/shop/products/fisherbrand-reusable-glass-wide-mouth-erlenmeyer-flasks-5/p-3653767</t>
   </si>
 </sst>
 </file>
@@ -445,10 +490,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:F33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -592,6 +637,65 @@
         <v>24</v>
       </c>
     </row>
+    <row r="19" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>26</v>
+      </c>
+      <c r="B19" t="s">
+        <v>27</v>
+      </c>
+      <c r="C19" t="s">
+        <v>33</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E19" s="2">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>28</v>
+      </c>
+      <c r="B24" t="s">
+        <v>30</v>
+      </c>
+      <c r="C24" t="s">
+        <v>31</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F24" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>35</v>
+      </c>
+      <c r="C28" t="s">
+        <v>36</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E28" s="2">
+        <v>75</v>
+      </c>
+      <c r="F28" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>38</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D8" r:id="rId1"/>
